--- a/states/Francia.xlsx
+++ b/states/Francia.xlsx
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
     <t>timestamp</t>
   </si>
   <si>
@@ -146,9 +149,6 @@
   </si>
   <si>
     <t>exchange_import</t>
-  </si>
-  <si>
-    <t>74</t>
   </si>
   <si>
     <t>89%</t>
@@ -518,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:46">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,127 +657,129 @@
       <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:46">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>53600000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>66400</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>61400000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>32133200</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>6427.52</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>16000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1580000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>745040</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2848.56</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1820000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>37520</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>517.92</v>
       </c>
-      <c r="T2">
-        <v>18500000</v>
-      </c>
-      <c r="U2">
-        <v>3435760</v>
-      </c>
-      <c r="V2">
-        <v>630.8</v>
-      </c>
-      <c r="W2">
+      <c r="X2">
         <v>12400000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1865280</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1401.04</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>18700000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>6646400</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2656</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>5030000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>536000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>484.72</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>7000</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>12200000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>4384480</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>35796.24</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>2750000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>150080</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1626.8</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>1370000</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>47</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/states/Francia.xlsx
+++ b/states/Francia.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Francia" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
     <t>timestamp</t>
   </si>
   <si>
@@ -151,16 +148,19 @@
     <t>exchange_import</t>
   </si>
   <si>
-    <t>89%</t>
-  </si>
-  <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Svizzera,nan,-257280.0,318.72; Gran Bretagna,3000000.0,-686080.0,849.92; Settentrione (Italia),nan,-1934960.0,2397.04;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Belgio,nan,1007680.0,2543.12; Germania,nan,905840.0,5079.6; Spagna,2800000.0,1758080.0,6394.32;</t>
+    <t>83</t>
+  </si>
+  <si>
+    <t>87%</t>
+  </si>
+  <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belgio,nan,-498750.0,688.75; Settentrione (Italia),nan,-2210250.0,3052.25;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Svizzera,nan,136500.0,253.75; Germania,nan,336000.0,1638.5; Spagna,2800000.0,2031750.0,4814.0; Gran Bretagna,3000000.0,1165500.0,4487.75;</t>
   </si>
 </sst>
 </file>
@@ -518,268 +518,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT3"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:44">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>52500000</v>
+      </c>
+      <c r="F2">
+        <v>72500</v>
+      </c>
+      <c r="G2">
+        <v>61400000</v>
+      </c>
+      <c r="H2">
+        <v>32403000</v>
+      </c>
+      <c r="I2">
+        <v>6481.5</v>
+      </c>
+      <c r="J2">
+        <v>16000</v>
+      </c>
+      <c r="M2">
+        <v>1580000</v>
+      </c>
+      <c r="N2">
+        <v>761250</v>
+      </c>
+      <c r="O2">
+        <v>2914.5</v>
+      </c>
+      <c r="P2">
+        <v>1820000</v>
+      </c>
+      <c r="Q2">
+        <v>15750</v>
+      </c>
+      <c r="R2">
+        <v>217.5</v>
+      </c>
+      <c r="S2">
+        <v>18500000</v>
+      </c>
+      <c r="T2">
+        <v>740250</v>
+      </c>
+      <c r="U2">
+        <v>137.75</v>
+      </c>
+      <c r="V2">
+        <v>12400000</v>
+      </c>
+      <c r="W2">
+        <v>1863750</v>
+      </c>
+      <c r="X2">
+        <v>1399.25</v>
+      </c>
+      <c r="Y2">
+        <v>18700000</v>
+      </c>
+      <c r="Z2">
+        <v>6767250</v>
+      </c>
+      <c r="AA2">
+        <v>2704.25</v>
+      </c>
+      <c r="AB2">
+        <v>5030000</v>
+      </c>
+      <c r="AC2">
+        <v>588000</v>
+      </c>
+      <c r="AD2">
+        <v>529.25</v>
+      </c>
+      <c r="AE2">
+        <v>7000</v>
+      </c>
+      <c r="AF2">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46">
-      <c r="A2" s="1">
+      <c r="AG2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2">
-        <v>53600000</v>
-      </c>
-      <c r="H2">
-        <v>66400</v>
-      </c>
-      <c r="I2">
-        <v>61400000</v>
-      </c>
-      <c r="J2">
-        <v>32133200</v>
-      </c>
-      <c r="K2">
-        <v>6427.52</v>
-      </c>
-      <c r="L2">
-        <v>16000</v>
-      </c>
-      <c r="O2">
-        <v>1580000</v>
-      </c>
-      <c r="P2">
-        <v>745040</v>
-      </c>
-      <c r="Q2">
-        <v>2848.56</v>
-      </c>
-      <c r="R2">
-        <v>1820000</v>
-      </c>
-      <c r="S2">
-        <v>37520</v>
-      </c>
-      <c r="T2">
-        <v>517.92</v>
-      </c>
-      <c r="X2">
-        <v>12400000</v>
-      </c>
-      <c r="Y2">
-        <v>1865280</v>
-      </c>
-      <c r="Z2">
-        <v>1401.04</v>
-      </c>
-      <c r="AA2">
-        <v>18700000</v>
-      </c>
-      <c r="AB2">
-        <v>6646400</v>
-      </c>
-      <c r="AC2">
-        <v>2656</v>
-      </c>
-      <c r="AD2">
-        <v>5030000</v>
-      </c>
-      <c r="AE2">
-        <v>536000</v>
-      </c>
-      <c r="AF2">
-        <v>484.72</v>
-      </c>
-      <c r="AG2">
-        <v>7000</v>
-      </c>
       <c r="AH2">
-        <v>0</v>
+        <v>12200000</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>5544000</v>
       </c>
       <c r="AJ2">
-        <v>12200000</v>
+        <v>45290.75</v>
       </c>
       <c r="AK2">
-        <v>4384480</v>
+        <v>2750000</v>
       </c>
       <c r="AL2">
-        <v>35796.24</v>
+        <v>152250</v>
       </c>
       <c r="AM2">
-        <v>2750000</v>
+        <v>1624</v>
       </c>
       <c r="AN2">
-        <v>150080</v>
-      </c>
-      <c r="AO2">
-        <v>1626.8</v>
-      </c>
-      <c r="AP2">
         <v>1370000</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AQ2" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AR2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46">
-      <c r="A3" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/states/Francia.xlsx
+++ b/states/Francia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>timestamp</t>
   </si>
@@ -148,19 +148,55 @@
     <t>exchange_import</t>
   </si>
   <si>
-    <t>83</t>
+    <t>21:02 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:20 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:32 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:51 13-04-2022</t>
+  </si>
+  <si>
+    <t>00:22 14-04-2022</t>
+  </si>
+  <si>
+    <t>77</t>
   </si>
   <si>
     <t>87%</t>
   </si>
   <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
     <t>24%</t>
   </si>
   <si>
-    <t xml:space="preserve"> Belgio,nan,-498750.0,688.75; Settentrione (Italia),nan,-2210250.0,3052.25;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Svizzera,nan,136500.0,253.75; Germania,nan,336000.0,1638.5; Spagna,2800000.0,2031750.0,4814.0; Gran Bretagna,3000000.0,1165500.0,4487.75;</t>
+    <t>31%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belgio,nan,-95580.0,132.12; Germania,nan,-63720.0,88.08; Settentrione (Italia),nan,-1863810.0,2576.34;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belgio,nan,-90610.0,130.22; Settentrione (Italia),nan,-1977430.0,2841.86;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Settentrione (Italia),nan,-1978830.0,2533.74;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Svizzera,nan,398250.0,748.68; Spagna,2800000.0,1449630.0,4198.48; Gran Bretagna,3000000.0,955800.0,4081.04;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Svizzera,nan,351780.0,666.42; Germania,nan,218530.0,1662.22; Spagna,2800000.0,1428440.0,4611.32; Gran Bretagna,3000000.0,954070.0,5270.08;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belgio,nan,396900.0,1023.66; Svizzera,nan,34020.0,65.34; Germania,nan,215460.0,1052.7; Spagna,2800000.0,1423170.0,4181.76; Gran Bretagna,3000000.0,1134000.0,4653.66;</t>
   </si>
 </sst>
 </file>
@@ -518,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -659,122 +695,496 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>53100000</v>
+      </c>
+      <c r="F3">
+        <v>73400</v>
+      </c>
+      <c r="G3">
+        <v>61400000</v>
+      </c>
+      <c r="H3">
+        <v>32587470</v>
+      </c>
+      <c r="I3">
+        <v>6517.92</v>
+      </c>
+      <c r="J3">
+        <v>16000</v>
+      </c>
+      <c r="M3">
+        <v>1580000</v>
+      </c>
+      <c r="N3">
+        <v>759330</v>
+      </c>
+      <c r="O3">
+        <v>2913.98</v>
+      </c>
+      <c r="P3">
+        <v>1820000</v>
+      </c>
+      <c r="Q3">
+        <v>10620</v>
+      </c>
+      <c r="R3">
+        <v>183.5</v>
+      </c>
+      <c r="S3">
+        <v>18500000</v>
+      </c>
+      <c r="T3">
+        <v>1072620</v>
+      </c>
+      <c r="U3">
+        <v>198.18</v>
+      </c>
+      <c r="V3">
+        <v>12400000</v>
+      </c>
+      <c r="W3">
+        <v>42480</v>
+      </c>
+      <c r="X3">
+        <v>36.7</v>
+      </c>
+      <c r="Y3">
+        <v>18700000</v>
+      </c>
+      <c r="Z3">
+        <v>8304840</v>
+      </c>
+      <c r="AA3">
+        <v>3325.02</v>
+      </c>
+      <c r="AB3">
+        <v>5030000</v>
+      </c>
+      <c r="AC3">
+        <v>1454940</v>
+      </c>
+      <c r="AD3">
+        <v>1313.86</v>
+      </c>
+      <c r="AE3">
+        <v>7000</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>12200000</v>
+      </c>
+      <c r="AI3">
+        <v>5910030</v>
+      </c>
+      <c r="AJ3">
+        <v>48275.18</v>
+      </c>
+      <c r="AK3">
+        <v>2750000</v>
+      </c>
+      <c r="AL3">
+        <v>148680</v>
+      </c>
+      <c r="AM3">
+        <v>1614.8</v>
+      </c>
+      <c r="AN3">
+        <v>1370000</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="E2">
-        <v>52500000</v>
-      </c>
-      <c r="F2">
-        <v>72500</v>
-      </c>
-      <c r="G2">
+      <c r="B4">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>53100000</v>
+      </c>
+      <c r="F4">
+        <v>73400</v>
+      </c>
+      <c r="G4">
         <v>61400000</v>
       </c>
-      <c r="H2">
-        <v>32403000</v>
-      </c>
-      <c r="I2">
-        <v>6481.5</v>
-      </c>
-      <c r="J2">
+      <c r="H4">
+        <v>32587470</v>
+      </c>
+      <c r="I4">
+        <v>6517.92</v>
+      </c>
+      <c r="J4">
         <v>16000</v>
       </c>
-      <c r="M2">
+      <c r="M4">
         <v>1580000</v>
       </c>
-      <c r="N2">
-        <v>761250</v>
-      </c>
-      <c r="O2">
-        <v>2914.5</v>
-      </c>
-      <c r="P2">
+      <c r="N4">
+        <v>759330</v>
+      </c>
+      <c r="O4">
+        <v>2913.98</v>
+      </c>
+      <c r="P4">
         <v>1820000</v>
       </c>
-      <c r="Q2">
-        <v>15750</v>
-      </c>
-      <c r="R2">
-        <v>217.5</v>
-      </c>
-      <c r="S2">
+      <c r="Q4">
+        <v>10620</v>
+      </c>
+      <c r="R4">
+        <v>183.5</v>
+      </c>
+      <c r="S4">
         <v>18500000</v>
       </c>
-      <c r="T2">
-        <v>740250</v>
-      </c>
-      <c r="U2">
-        <v>137.75</v>
-      </c>
-      <c r="V2">
+      <c r="T4">
+        <v>1072620</v>
+      </c>
+      <c r="U4">
+        <v>198.18</v>
+      </c>
+      <c r="V4">
         <v>12400000</v>
       </c>
-      <c r="W2">
-        <v>1863750</v>
-      </c>
-      <c r="X2">
-        <v>1399.25</v>
-      </c>
-      <c r="Y2">
+      <c r="W4">
+        <v>42480</v>
+      </c>
+      <c r="X4">
+        <v>36.7</v>
+      </c>
+      <c r="Y4">
         <v>18700000</v>
       </c>
-      <c r="Z2">
-        <v>6767250</v>
-      </c>
-      <c r="AA2">
-        <v>2704.25</v>
-      </c>
-      <c r="AB2">
+      <c r="Z4">
+        <v>8304840</v>
+      </c>
+      <c r="AA4">
+        <v>3325.02</v>
+      </c>
+      <c r="AB4">
         <v>5030000</v>
       </c>
-      <c r="AC2">
-        <v>588000</v>
-      </c>
-      <c r="AD2">
-        <v>529.25</v>
-      </c>
-      <c r="AE2">
+      <c r="AC4">
+        <v>1454940</v>
+      </c>
+      <c r="AD4">
+        <v>1313.86</v>
+      </c>
+      <c r="AE4">
         <v>7000</v>
       </c>
-      <c r="AF2">
+      <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG2">
+      <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AH2">
+      <c r="AH4">
         <v>12200000</v>
       </c>
-      <c r="AI2">
-        <v>5544000</v>
-      </c>
-      <c r="AJ2">
-        <v>45290.75</v>
-      </c>
-      <c r="AK2">
+      <c r="AI4">
+        <v>5910030</v>
+      </c>
+      <c r="AJ4">
+        <v>48275.18</v>
+      </c>
+      <c r="AK4">
         <v>2750000</v>
       </c>
-      <c r="AL2">
-        <v>152250</v>
-      </c>
-      <c r="AM2">
-        <v>1624</v>
-      </c>
-      <c r="AN2">
+      <c r="AL4">
+        <v>148680</v>
+      </c>
+      <c r="AM4">
+        <v>1614.8</v>
+      </c>
+      <c r="AN4">
         <v>1370000</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AQ4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="B5">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>53300000</v>
+      </c>
+      <c r="F5">
+        <v>76600</v>
+      </c>
+      <c r="G5">
+        <v>61400000</v>
+      </c>
+      <c r="H5">
+        <v>32619600</v>
+      </c>
+      <c r="I5">
+        <v>6518.66</v>
+      </c>
+      <c r="J5">
+        <v>16000</v>
+      </c>
+      <c r="M5">
+        <v>1580000</v>
+      </c>
+      <c r="N5">
+        <v>762190</v>
+      </c>
+      <c r="O5">
+        <v>2918.46</v>
+      </c>
+      <c r="P5">
+        <v>1820000</v>
+      </c>
+      <c r="Q5">
+        <v>10660</v>
+      </c>
+      <c r="R5">
+        <v>183.84</v>
+      </c>
+      <c r="S5">
+        <v>18500000</v>
+      </c>
+      <c r="T5">
+        <v>1071330</v>
+      </c>
+      <c r="U5">
+        <v>199.16</v>
+      </c>
+      <c r="V5">
+        <v>12400000</v>
+      </c>
+      <c r="W5">
+        <v>42640</v>
+      </c>
+      <c r="X5">
+        <v>30.64</v>
+      </c>
+      <c r="Y5">
+        <v>18700000</v>
+      </c>
+      <c r="Z5">
+        <v>8309470</v>
+      </c>
+      <c r="AA5">
+        <v>3324.44</v>
+      </c>
+      <c r="AB5">
+        <v>5030000</v>
+      </c>
+      <c r="AC5">
+        <v>1455090</v>
+      </c>
+      <c r="AD5">
+        <v>1317.52</v>
+      </c>
+      <c r="AE5">
+        <v>7000</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>12200000</v>
+      </c>
+      <c r="AI5">
+        <v>5916300</v>
+      </c>
+      <c r="AJ5">
+        <v>48280.98</v>
+      </c>
+      <c r="AK5">
+        <v>2750000</v>
+      </c>
+      <c r="AL5">
+        <v>149240</v>
+      </c>
+      <c r="AM5">
+        <v>1616.26</v>
+      </c>
+      <c r="AN5">
+        <v>1370000</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" t="s">
         <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>56700000</v>
+      </c>
+      <c r="F6">
+        <v>72600</v>
+      </c>
+      <c r="G6">
+        <v>61400000</v>
+      </c>
+      <c r="H6">
+        <v>31536540</v>
+      </c>
+      <c r="I6">
+        <v>6308.94</v>
+      </c>
+      <c r="J6">
+        <v>16000</v>
+      </c>
+      <c r="M6">
+        <v>1580000</v>
+      </c>
+      <c r="N6">
+        <v>748440</v>
+      </c>
+      <c r="O6">
+        <v>2874.96</v>
+      </c>
+      <c r="P6">
+        <v>1820000</v>
+      </c>
+      <c r="Q6">
+        <v>164430</v>
+      </c>
+      <c r="R6">
+        <v>2214.3</v>
+      </c>
+      <c r="S6">
+        <v>18500000</v>
+      </c>
+      <c r="T6">
+        <v>7909650</v>
+      </c>
+      <c r="U6">
+        <v>1452</v>
+      </c>
+      <c r="V6">
+        <v>12400000</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>18700000</v>
+      </c>
+      <c r="Z6">
+        <v>6594210</v>
+      </c>
+      <c r="AA6">
+        <v>2635.38</v>
+      </c>
+      <c r="AB6">
+        <v>5030000</v>
+      </c>
+      <c r="AC6">
+        <v>1065960</v>
+      </c>
+      <c r="AD6">
+        <v>965.58</v>
+      </c>
+      <c r="AE6">
+        <v>7000</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>12200000</v>
+      </c>
+      <c r="AI6">
+        <v>5284440</v>
+      </c>
+      <c r="AJ6">
+        <v>43175.22</v>
+      </c>
+      <c r="AK6">
+        <v>2750000</v>
+      </c>
+      <c r="AL6">
+        <v>187110</v>
+      </c>
+      <c r="AM6">
+        <v>1996.5</v>
+      </c>
+      <c r="AN6">
+        <v>1370000</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/states/Francia.xlsx
+++ b/states/Francia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,20 +661,14 @@
           <t>17:37 16-04-2022</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="B2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2" t="n">
+        <v>98</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40</v>
       </c>
       <c r="E2" t="n">
         <v>46500000</v>
@@ -786,6 +780,142 @@
         </is>
       </c>
       <c r="AR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Spagna_2800000.0_2822550.0_4915.94;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17:47 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>46500000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>27100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>61400000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>26272500</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5249.27</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1580000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>748650</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2875.31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1820000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>23250</v>
+      </c>
+      <c r="R3" t="n">
+        <v>325.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>18500000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4691850</v>
+      </c>
+      <c r="U3" t="n">
+        <v>859.0700000000001</v>
+      </c>
+      <c r="V3" t="n">
+        <v>12400000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6063600</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4544.67</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>18700000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5152200</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2059.6</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>5030000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-3380550</v>
+      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>7000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12200000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>581250</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4747.92</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2750000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>139500</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1525.73</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1370000</v>
+      </c>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Belgio_nan_-1102050.0_642.27; Svizzera_nan_-1739100.0_1013.54; Germania_nan_-162750.0_94.85; Gran Bretagna_3000000.0_-241800.0_140.92; Settentrione (Italia)_nan_-2297100.0_1338.74;</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Spagna_2800000.0_2822550.0_4915.94;</t>
         </is>
